--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_9_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_9_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1087352.419475468</v>
+        <v>1120293.464067982</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2781523.791147227</v>
+        <v>1534490.518704257</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9530324.193536608</v>
+        <v>8217514.839395276</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8317254.403436785</v>
+        <v>8818800.883091126</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.4342555987302</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>199.4342555987302</v>
+        <v>7.613451958241605</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>197.9748031191944</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.12035367896944</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.4342555987302</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V3" t="n">
-        <v>199.4342555987302</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,25 +901,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>193.0573475175504</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>26.92232807701202</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>199.43425559873</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="X6" t="n">
-        <v>3.231929901265703</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1093,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>47.02492433367364</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>42.20118209180436</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>160.3589548162262</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F8" t="n">
-        <v>199.43425559873</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>4.743544820165533</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>164.9800061244518</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>27.69414672601644</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>23.73037608650009</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>199.43425559873</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>199.43425559873</v>
+        <v>414.4091447390923</v>
       </c>
       <c r="H11" t="n">
-        <v>199.43425559873</v>
+        <v>330.3232950981193</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.8654028774251</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.6178667921995</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>31.07119011782889</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>162.80240794462</v>
       </c>
       <c r="T12" t="n">
-        <v>19.07044969883818</v>
+        <v>198.2375926043089</v>
       </c>
       <c r="U12" t="n">
-        <v>199.43425559873</v>
+        <v>225.9099271937521</v>
       </c>
       <c r="V12" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>74.02211362799397</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>217.0311379348592</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>69.14137556601901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>175.6616923313613</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>199.43425559873</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.4091447390923</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>181.9917877521183</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>176.0256540720175</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.8654028774251</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.6178667921995</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>199.43425559873</v>
+        <v>218.8810691349519</v>
       </c>
       <c r="W15" t="n">
-        <v>10.15149286637954</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1807,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>52.59758159255841</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>159.270394160137</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>217.0311379348592</v>
       </c>
       <c r="T16" t="n">
-        <v>69.14137556601895</v>
+        <v>8.588100521867931</v>
       </c>
       <c r="U16" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>163.8950372953896</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>352.3439672503727</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,10 +1861,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1920,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498666</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2005,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>50.28788303971712</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>58.0029971241734</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>163.3224055697209</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>162.1879012502432</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>30.05143818257736</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2281,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>144.54503968478</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>237.4640910185898</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>354.7715506615909</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2414,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250818</v>
@@ -2463,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2530,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="V25" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>121.9722865630709</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>192.1358851401258</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2682,7 +2684,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2713,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>41.03250833502961</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -2852,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>121.2636008304491</v>
       </c>
       <c r="X29" t="n">
-        <v>167.7806144771827</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2883,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H30" t="n">
         <v>104.3883541553076</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2950,28 +2952,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>78.97002921571071</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>70.18226380646121</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>48.50109504517473</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.41145625320664</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -3089,10 +3091,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3159,7 +3161,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U33" t="n">
         <v>225.8879277888686</v>
@@ -3190,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>49.92693022021933</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>294.8359431706714</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>321.7064610691117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3354,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G36" t="n">
         <v>136.5310119231965</v>
@@ -3393,7 +3395,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T36" t="n">
         <v>196.8897623984489</v>
@@ -3427,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>131.8179123113441</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>20.16013205738678</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,16 +3505,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>58.55476694445626</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>14.89518631743262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>285.5635981313769</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>199.43425559873</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>26.32826316357599</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>48.74891887625861</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>9.851118193545553</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -3864,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>99.98950665473498</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
-        <v>199.43425559873</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.72683757586834</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>126.5467427872843</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>175.6616923313613</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>199.43425559873</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>126.3425655357706</v>
       </c>
     </row>
     <row r="45">
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>71.8547897389675</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>91.25399207697421</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>199.43425559873</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.43425559873</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4135,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>37.83808333974872</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>62.95369569505461</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>244.9307833453507</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C2" t="n">
-        <v>244.9307833453507</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D2" t="n">
-        <v>244.9307833453507</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E2" t="n">
-        <v>244.9307833453507</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F2" t="n">
-        <v>43.4820403163303</v>
+        <v>30.69401002537914</v>
       </c>
       <c r="G2" t="n">
-        <v>28.02472969498177</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H2" t="n">
-        <v>28.02472969498177</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I2" t="n">
-        <v>28.02472969498177</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J2" t="n">
-        <v>15.95474044789841</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>15.95474044789841</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L2" t="n">
-        <v>196.030592032557</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4421039174788</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N2" t="n">
-        <v>558.8820169602217</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O2" t="n">
-        <v>708.0769671028697</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P2" t="n">
-        <v>797.7370223949207</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>797.7370223949207</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>646.354074979618</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S2" t="n">
-        <v>646.354074979618</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T2" t="n">
-        <v>646.354074979618</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U2" t="n">
-        <v>646.354074979618</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V2" t="n">
-        <v>646.354074979618</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W2" t="n">
-        <v>646.354074979618</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X2" t="n">
-        <v>646.354074979618</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y2" t="n">
-        <v>446.379526374371</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>394.8395363368799</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C3" t="n">
-        <v>394.8395363368799</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D3" t="n">
-        <v>358.3543306005471</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E3" t="n">
-        <v>358.3543306005471</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F3" t="n">
-        <v>358.3543306005471</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G3" t="n">
-        <v>219.6235051831626</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H3" t="n">
-        <v>106.2543695907419</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I3" t="n">
-        <v>15.95474044789841</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J3" t="n">
-        <v>15.95474044789841</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>141.3123005057358</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L3" t="n">
-        <v>338.7522135484787</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M3" t="n">
-        <v>536.1921265912215</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N3" t="n">
-        <v>728.3424638815914</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="O3" t="n">
-        <v>728.3424638815914</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P3" t="n">
-        <v>728.3424638815914</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q3" t="n">
-        <v>797.7370223949207</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>797.7370223949207</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>797.7370223949207</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>596.2882793659003</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U3" t="n">
-        <v>596.2882793659003</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V3" t="n">
-        <v>394.8395363368799</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W3" t="n">
-        <v>394.8395363368799</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X3" t="n">
-        <v>394.8395363368799</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y3" t="n">
-        <v>394.8395363368799</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.95474044789841</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C4" t="n">
-        <v>15.95474044789841</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D4" t="n">
-        <v>15.95474044789841</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E4" t="n">
-        <v>15.95474044789841</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F4" t="n">
-        <v>15.95474044789841</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G4" t="n">
-        <v>15.95474044789841</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H4" t="n">
-        <v>15.95474044789841</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I4" t="n">
-        <v>15.95474044789841</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J4" t="n">
-        <v>15.95474044789841</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K4" t="n">
-        <v>15.95474044789841</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>43.26886545561139</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>82.45690364783357</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>126.1477543032699</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>150.4870309381691</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>150.4870309381691</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.4870309381691</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="R4" t="n">
-        <v>150.4870309381691</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S4" t="n">
-        <v>150.4870309381691</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T4" t="n">
-        <v>150.4870309381691</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U4" t="n">
-        <v>150.4870309381691</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V4" t="n">
-        <v>150.4870309381691</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W4" t="n">
-        <v>150.4870309381691</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X4" t="n">
-        <v>150.4870309381691</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.95474044789841</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.3649735533498</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C5" t="n">
-        <v>233.3649735533498</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D5" t="n">
-        <v>38.35755181845042</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E5" t="n">
-        <v>38.35755181845042</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F5" t="n">
-        <v>31.41205106924694</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G5" t="n">
-        <v>15.9547404478984</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H5" t="n">
-        <v>15.9547404478984</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I5" t="n">
-        <v>15.9547404478984</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>118.9697463588208</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>299.0455979434793</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>496.485510986222</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>648.5420722522721</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>797.7370223949201</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>797.7370223949201</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>787.6454070266931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>636.2624596113903</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S5" t="n">
-        <v>434.8137165823701</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T5" t="n">
-        <v>233.3649735533498</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U5" t="n">
-        <v>233.3649735533498</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V5" t="n">
-        <v>233.3649735533498</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W5" t="n">
-        <v>233.3649735533498</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X5" t="n">
-        <v>233.3649735533498</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y5" t="n">
-        <v>233.3649735533498</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.70887310068412</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="C6" t="n">
-        <v>16.70887310068412</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="D6" t="n">
-        <v>16.70887310068412</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="E6" t="n">
-        <v>16.70887310068412</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="F6" t="n">
-        <v>16.70887310068412</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="G6" t="n">
-        <v>16.70887310068412</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="H6" t="n">
-        <v>16.70887310068412</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I6" t="n">
-        <v>16.70887310068412</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>141.3123005057358</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>141.3123005057358</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>150.8191601827544</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N6" t="n">
-        <v>348.2590732254972</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>545.6989862682399</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>728.3424638815908</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>797.7370223949201</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>797.7370223949201</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>624.319677845589</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T6" t="n">
-        <v>422.8709348165688</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U6" t="n">
-        <v>221.4221917875485</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V6" t="n">
-        <v>221.4221917875485</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W6" t="n">
-        <v>19.97344875852826</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="X6" t="n">
-        <v>16.70887310068412</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.70887310068412</v>
+        <v>48.8626583413347</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.9547404478984</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C7" t="n">
-        <v>15.9547404478984</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D7" t="n">
-        <v>15.9547404478984</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E7" t="n">
-        <v>15.9547404478984</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F7" t="n">
-        <v>15.9547404478984</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G7" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>43.26886545561138</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>82.45690364783357</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>126.1477543032699</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>150.4870309381691</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>150.4870309381691</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>63.45466401726571</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R7" t="n">
-        <v>63.45466401726571</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S7" t="n">
-        <v>63.45466401726571</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T7" t="n">
-        <v>63.45466401726571</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U7" t="n">
-        <v>63.45466401726571</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V7" t="n">
-        <v>63.45466401726571</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W7" t="n">
-        <v>15.9547404478984</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X7" t="n">
-        <v>15.9547404478984</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.9547404478984</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>394.8395363368796</v>
+        <v>127.1592782043951</v>
       </c>
       <c r="C8" t="n">
-        <v>394.8395363368796</v>
+        <v>82.58132630618435</v>
       </c>
       <c r="D8" t="n">
-        <v>394.8395363368796</v>
+        <v>82.58132630618435</v>
       </c>
       <c r="E8" t="n">
-        <v>232.8607940982672</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="F8" t="n">
-        <v>31.41205106924694</v>
+        <v>31.05787365877018</v>
       </c>
       <c r="G8" t="n">
-        <v>15.9547404478984</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H8" t="n">
-        <v>15.9547404478984</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I8" t="n">
-        <v>15.9547404478984</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J8" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>118.9697463588208</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>299.0455979434793</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>496.485510986222</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N8" t="n">
-        <v>648.5420722522721</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>797.7370223949201</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>797.7370223949201</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>797.7370223949201</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>797.7370223949201</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S8" t="n">
-        <v>797.7370223949201</v>
+        <v>127.1592782043951</v>
       </c>
       <c r="T8" t="n">
-        <v>797.7370223949201</v>
+        <v>127.1592782043951</v>
       </c>
       <c r="U8" t="n">
-        <v>596.2882793658998</v>
+        <v>127.1592782043951</v>
       </c>
       <c r="V8" t="n">
-        <v>596.2882793658998</v>
+        <v>127.1592782043951</v>
       </c>
       <c r="W8" t="n">
-        <v>596.2882793658998</v>
+        <v>127.1592782043951</v>
       </c>
       <c r="X8" t="n">
-        <v>394.8395363368796</v>
+        <v>127.1592782043951</v>
       </c>
       <c r="Y8" t="n">
-        <v>394.8395363368796</v>
+        <v>127.1592782043951</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>429.6418085331202</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>255.1887792519932</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D9" t="n">
-        <v>106.2543695907419</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E9" t="n">
-        <v>106.2543695907419</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F9" t="n">
-        <v>106.2543695907419</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G9" t="n">
-        <v>106.2543695907419</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H9" t="n">
-        <v>106.2543695907419</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>141.3123005057358</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>220.2137186960839</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>417.6536317388266</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>615.0935447815693</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
-        <v>615.0935447815693</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>797.7370223949201</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>797.7370223949201</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>797.7370223949201</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>797.7370223949201</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>596.2882793658998</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>596.2882793658998</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>596.2882793658998</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>429.6418085331202</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>429.6418085331202</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>429.6418085331202</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.4870309381691</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>38.44917663565887</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>38.44917663565887</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>38.44917663565887</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>38.44917663565887</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>38.44917663565887</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>38.44917663565887</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>38.44917663565887</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>38.44917663565887</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>43.26886545561138</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>82.45690364783357</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>126.1477543032699</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>150.4870309381691</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>150.4870309381691</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.4870309381691</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="R10" t="n">
-        <v>150.4870309381691</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S10" t="n">
-        <v>150.4870309381691</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T10" t="n">
-        <v>150.4870309381691</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U10" t="n">
-        <v>150.4870309381691</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V10" t="n">
-        <v>150.4870309381691</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W10" t="n">
-        <v>150.4870309381691</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>150.4870309381691</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.4870309381691</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="C11" t="n">
-        <v>797.7370223949201</v>
+        <v>1946.790125959996</v>
       </c>
       <c r="D11" t="n">
-        <v>797.7370223949201</v>
+        <v>1588.524427353246</v>
       </c>
       <c r="E11" t="n">
-        <v>773.7669455398695</v>
+        <v>1202.736174755001</v>
       </c>
       <c r="F11" t="n">
-        <v>572.3182025108492</v>
+        <v>791.7502699653937</v>
       </c>
       <c r="G11" t="n">
-        <v>370.869459481829</v>
+        <v>373.1551742693409</v>
       </c>
       <c r="H11" t="n">
-        <v>169.4207164528088</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="I11" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="J11" t="n">
-        <v>15.9547404478984</v>
+        <v>102.7496279466723</v>
       </c>
       <c r="K11" t="n">
-        <v>213.3946534906411</v>
+        <v>318.2963024222879</v>
       </c>
       <c r="L11" t="n">
-        <v>217.23082913479</v>
+        <v>637.9776395922599</v>
       </c>
       <c r="M11" t="n">
-        <v>381.2006403809433</v>
+        <v>1010.291268666119</v>
       </c>
       <c r="N11" t="n">
-        <v>422.3338839098104</v>
+        <v>1373.997323954495</v>
       </c>
       <c r="O11" t="n">
-        <v>447.8395781252072</v>
+        <v>1672.247000643172</v>
       </c>
       <c r="P11" t="n">
-        <v>645.2794911679499</v>
+        <v>1889.121816539282</v>
       </c>
       <c r="Q11" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R11" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="S11" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="T11" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="U11" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="V11" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="W11" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="X11" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="Y11" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.9547404478984</v>
+        <v>798.0581606596791</v>
       </c>
       <c r="C12" t="n">
-        <v>15.9547404478984</v>
+        <v>623.6051313785521</v>
       </c>
       <c r="D12" t="n">
-        <v>15.9547404478984</v>
+        <v>623.6051313785521</v>
       </c>
       <c r="E12" t="n">
-        <v>15.9547404478984</v>
+        <v>464.3676763730966</v>
       </c>
       <c r="F12" t="n">
-        <v>15.9547404478984</v>
+        <v>317.8331183999816</v>
       </c>
       <c r="G12" t="n">
-        <v>15.9547404478984</v>
+        <v>179.5852367056128</v>
       </c>
       <c r="H12" t="n">
-        <v>15.9547404478984</v>
+        <v>70.8803207538961</v>
       </c>
       <c r="I12" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="J12" t="n">
-        <v>15.9547404478984</v>
+        <v>83.47575671172197</v>
       </c>
       <c r="K12" t="n">
-        <v>15.9547404478984</v>
+        <v>83.47575671172197</v>
       </c>
       <c r="L12" t="n">
-        <v>213.3946534906411</v>
+        <v>416.2123592495183</v>
       </c>
       <c r="M12" t="n">
-        <v>410.8345665333838</v>
+        <v>856.479501879795</v>
       </c>
       <c r="N12" t="n">
-        <v>579.3304366908862</v>
+        <v>1324.106219107183</v>
       </c>
       <c r="O12" t="n">
-        <v>776.7703497336289</v>
+        <v>1685.477628824465</v>
       </c>
       <c r="P12" t="n">
-        <v>797.7370223949201</v>
+        <v>1958.506976511432</v>
       </c>
       <c r="Q12" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R12" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="S12" t="n">
-        <v>639.5640500388362</v>
+        <v>1810.317134830093</v>
       </c>
       <c r="T12" t="n">
-        <v>620.3009695349592</v>
+        <v>1610.077142300489</v>
       </c>
       <c r="U12" t="n">
-        <v>418.8522265059389</v>
+        <v>1381.885296650234</v>
       </c>
       <c r="V12" t="n">
-        <v>217.4034834769187</v>
+        <v>1381.885296650234</v>
       </c>
       <c r="W12" t="n">
-        <v>15.9547404478984</v>
+        <v>1381.885296650234</v>
       </c>
       <c r="X12" t="n">
-        <v>15.9547404478984</v>
+        <v>1174.033796444701</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.9547404478984</v>
+        <v>966.2734976797472</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.9547404478984</v>
+        <v>262.1781855586782</v>
       </c>
       <c r="C13" t="n">
-        <v>15.9547404478984</v>
+        <v>262.1781855586782</v>
       </c>
       <c r="D13" t="n">
-        <v>15.9547404478984</v>
+        <v>262.1781855586782</v>
       </c>
       <c r="E13" t="n">
-        <v>15.9547404478984</v>
+        <v>114.2650919762851</v>
       </c>
       <c r="F13" t="n">
-        <v>15.9547404478984</v>
+        <v>114.2650919762851</v>
       </c>
       <c r="G13" t="n">
-        <v>15.9547404478984</v>
+        <v>114.2650919762851</v>
       </c>
       <c r="H13" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="I13" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="J13" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25693351416655</v>
+        <v>63.55251999715894</v>
       </c>
       <c r="L13" t="n">
-        <v>199.830791075325</v>
+        <v>149.8639388832537</v>
       </c>
       <c r="M13" t="n">
-        <v>344.7286597933549</v>
+        <v>251.2563514392362</v>
       </c>
       <c r="N13" t="n">
-        <v>491.615797477784</v>
+        <v>355.6724954696756</v>
       </c>
       <c r="O13" t="n">
-        <v>611.2735479870241</v>
+        <v>436.1014092099363</v>
       </c>
       <c r="P13" t="n">
-        <v>690.1407428339683</v>
+        <v>481.4015572100511</v>
       </c>
       <c r="Q13" t="n">
-        <v>690.1407428339683</v>
+        <v>481.4015572100511</v>
       </c>
       <c r="R13" t="n">
-        <v>690.1407428339683</v>
+        <v>481.4015572100511</v>
       </c>
       <c r="S13" t="n">
-        <v>690.1407428339683</v>
+        <v>262.1781855586782</v>
       </c>
       <c r="T13" t="n">
-        <v>690.1407428339683</v>
+        <v>262.1781855586782</v>
       </c>
       <c r="U13" t="n">
-        <v>488.691999804948</v>
+        <v>262.1781855586782</v>
       </c>
       <c r="V13" t="n">
-        <v>488.691999804948</v>
+        <v>262.1781855586782</v>
       </c>
       <c r="W13" t="n">
-        <v>287.2432567759278</v>
+        <v>262.1781855586782</v>
       </c>
       <c r="X13" t="n">
-        <v>85.79451374690751</v>
+        <v>262.1781855586782</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.9547404478984</v>
+        <v>262.1781855586782</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>217.4034834769187</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="C14" t="n">
-        <v>217.4034834769187</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="D14" t="n">
-        <v>217.4034834769187</v>
+        <v>1616.498312935081</v>
       </c>
       <c r="E14" t="n">
-        <v>217.4034834769187</v>
+        <v>1230.710060336836</v>
       </c>
       <c r="F14" t="n">
-        <v>15.9547404478984</v>
+        <v>819.7241555472287</v>
       </c>
       <c r="G14" t="n">
-        <v>15.9547404478984</v>
+        <v>401.1290598511759</v>
       </c>
       <c r="H14" t="n">
-        <v>15.9547404478984</v>
+        <v>217.2989712126725</v>
       </c>
       <c r="I14" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="J14" t="n">
-        <v>15.9547404478984</v>
+        <v>102.7496279466725</v>
       </c>
       <c r="K14" t="n">
-        <v>15.9547404478984</v>
+        <v>318.2963024222881</v>
       </c>
       <c r="L14" t="n">
-        <v>213.3946534906411</v>
+        <v>637.9776395922603</v>
       </c>
       <c r="M14" t="n">
-        <v>381.2006403809433</v>
+        <v>1010.291268666119</v>
       </c>
       <c r="N14" t="n">
-        <v>422.3338839098104</v>
+        <v>1373.997323954495</v>
       </c>
       <c r="O14" t="n">
-        <v>447.8395781252072</v>
+        <v>1672.247000643172</v>
       </c>
       <c r="P14" t="n">
-        <v>645.2794911679499</v>
+        <v>1889.121816539282</v>
       </c>
       <c r="Q14" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R14" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="S14" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="T14" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="U14" t="n">
-        <v>596.2882793658998</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="V14" t="n">
-        <v>394.8395363368796</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="W14" t="n">
-        <v>394.8395363368796</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="X14" t="n">
-        <v>394.8395363368796</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="Y14" t="n">
-        <v>394.8395363368796</v>
+        <v>1974.764011541831</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>336.9423277021405</v>
+        <v>915.6075297978708</v>
       </c>
       <c r="C15" t="n">
-        <v>162.4892984210134</v>
+        <v>741.1545005167438</v>
       </c>
       <c r="D15" t="n">
-        <v>162.4892984210134</v>
+        <v>592.2200908554926</v>
       </c>
       <c r="E15" t="n">
-        <v>162.4892984210134</v>
+        <v>432.9826358500371</v>
       </c>
       <c r="F15" t="n">
-        <v>15.9547404478984</v>
+        <v>286.4480778769221</v>
       </c>
       <c r="G15" t="n">
-        <v>15.9547404478984</v>
+        <v>148.2001961825533</v>
       </c>
       <c r="H15" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="I15" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="J15" t="n">
-        <v>91.21190284802823</v>
+        <v>83.47575671172198</v>
       </c>
       <c r="K15" t="n">
-        <v>91.21190284802823</v>
+        <v>285.2662392395934</v>
       </c>
       <c r="L15" t="n">
-        <v>184.4506106054008</v>
+        <v>618.0028417773897</v>
       </c>
       <c r="M15" t="n">
-        <v>381.8905236481435</v>
+        <v>872.7365369101938</v>
       </c>
       <c r="N15" t="n">
-        <v>579.3304366908862</v>
+        <v>1340.363254137581</v>
       </c>
       <c r="O15" t="n">
-        <v>776.7703497336289</v>
+        <v>1701.734663854864</v>
       </c>
       <c r="P15" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="Q15" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R15" t="n">
-        <v>747.5236518067451</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="S15" t="n">
-        <v>747.5236518067451</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="T15" t="n">
-        <v>548.6451039295239</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="U15" t="n">
-        <v>548.6451039295239</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="V15" t="n">
-        <v>347.1963609005036</v>
+        <v>1753.672022516627</v>
       </c>
       <c r="W15" t="n">
-        <v>336.9423277021405</v>
+        <v>1499.434665788425</v>
       </c>
       <c r="X15" t="n">
-        <v>336.9423277021405</v>
+        <v>1291.583165582893</v>
       </c>
       <c r="Y15" t="n">
-        <v>336.9423277021405</v>
+        <v>1083.822866817939</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="C16" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="D16" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="E16" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="F16" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="G16" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="H16" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="I16" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="J16" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25693351416655</v>
+        <v>63.55251999715897</v>
       </c>
       <c r="L16" t="n">
-        <v>199.830791075325</v>
+        <v>149.8639388832537</v>
       </c>
       <c r="M16" t="n">
-        <v>344.7286597933549</v>
+        <v>251.2563514392363</v>
       </c>
       <c r="N16" t="n">
-        <v>491.615797477784</v>
+        <v>355.6724954696757</v>
       </c>
       <c r="O16" t="n">
-        <v>611.2735479870241</v>
+        <v>436.1014092099364</v>
       </c>
       <c r="P16" t="n">
-        <v>690.1407428339683</v>
+        <v>481.4015572100512</v>
       </c>
       <c r="Q16" t="n">
-        <v>690.1407428339683</v>
+        <v>428.2726869145377</v>
       </c>
       <c r="R16" t="n">
-        <v>690.1407428339683</v>
+        <v>267.3935008941974</v>
       </c>
       <c r="S16" t="n">
-        <v>690.1407428339683</v>
+        <v>48.17012924282443</v>
       </c>
       <c r="T16" t="n">
-        <v>620.3009695349592</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="U16" t="n">
-        <v>418.8522265059389</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="V16" t="n">
-        <v>217.4034834769187</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="W16" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="X16" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2476.569858826099</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036444</v>
@@ -5519,7 +5521,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5540,25 +5542,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W17" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X17" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="18">
@@ -5595,7 +5597,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L18" t="n">
         <v>670.8219208598704</v>
@@ -5616,25 +5618,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>252.6519168570173</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="C19" t="n">
-        <v>252.6519168570173</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="D19" t="n">
-        <v>201.8560754027575</v>
+        <v>259.4218153022883</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>259.4218153022883</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>112.531867804378</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036444</v>
@@ -5692,31 +5694,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005474</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="X19" t="n">
-        <v>473.4444960005474</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="Y19" t="n">
-        <v>252.6519168570173</v>
+        <v>409.5384547146241</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1377017843616</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="C20" t="n">
-        <v>381.1377017843616</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D20" t="n">
-        <v>381.1377017843616</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E20" t="n">
         <v>381.1377017843616</v>
@@ -5744,10 +5746,10 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
@@ -5774,10 +5776,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
         <v>2247.308246834948</v>
@@ -5786,16 +5788,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W20" t="n">
-        <v>1309.714918859355</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X20" t="n">
-        <v>936.2491605982752</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y20" t="n">
-        <v>546.1098286224635</v>
+        <v>1125.191652989356</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641985</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5868,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.9823256406182</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="C22" t="n">
-        <v>411.0461427127113</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="D22" t="n">
-        <v>411.0461427127113</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="E22" t="n">
-        <v>411.0461427127113</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="F22" t="n">
-        <v>411.0461427127113</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="G22" t="n">
-        <v>242.0463424510438</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H22" t="n">
-        <v>84.2979698835739</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406182</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="T22" t="n">
-        <v>579.9823256406182</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="U22" t="n">
-        <v>579.9823256406182</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="V22" t="n">
-        <v>579.9823256406182</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="W22" t="n">
-        <v>579.9823256406182</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="X22" t="n">
-        <v>579.9823256406182</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="Y22" t="n">
-        <v>579.9823256406182</v>
+        <v>2159.291999533505</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1971.274048960885</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="C23" t="n">
-        <v>1602.311532020473</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D23" t="n">
-        <v>1244.045833413722</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E23" t="n">
-        <v>858.2575808154781</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>447.2716760258706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>1971.274048960885</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W23" t="n">
-        <v>1971.274048960885</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X23" t="n">
-        <v>1971.274048960885</v>
+        <v>1599.933757256656</v>
       </c>
       <c r="Y23" t="n">
-        <v>1971.274048960885</v>
+        <v>1209.794425280844</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6066,7 +6068,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
         <v>266.206002764199</v>
@@ -6178,13 +6180,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X25" t="n">
         <v>53.94298182036445</v>
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>546.109828622464</v>
+        <v>1168.064026826587</v>
       </c>
       <c r="C26" t="n">
-        <v>177.1473116820522</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D26" t="n">
-        <v>177.1473116820522</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E26" t="n">
-        <v>177.1473116820522</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F26" t="n">
-        <v>177.1473116820522</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>177.1473116820522</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>177.1473116820522</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2284.437772333592</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2284.437772333592</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>1931.669117063478</v>
       </c>
       <c r="X26" t="n">
-        <v>936.2491605982757</v>
+        <v>1558.203358802398</v>
       </c>
       <c r="Y26" t="n">
-        <v>546.109828622464</v>
+        <v>1168.064026826587</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6303,25 +6305,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6330,16 +6332,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>2528.212908090316</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>2528.212908090316</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>2380.299814507922</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>2233.409867010012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>2064.410066748344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
         <v>2022.963088632153</v>
@@ -6421,13 +6423,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018222</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X28" t="n">
-        <v>2697.149091018222</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y28" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>750.1002187247734</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C29" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D29" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E29" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6467,13 +6469,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6488,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W29" t="n">
-        <v>1309.714918859356</v>
+        <v>1716.172576127977</v>
       </c>
       <c r="X29" t="n">
-        <v>1140.239550700585</v>
+        <v>1342.706817866897</v>
       </c>
       <c r="Y29" t="n">
-        <v>750.1002187247734</v>
+        <v>952.5674858910851</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6540,43 +6542,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>473.4444960005474</v>
+        <v>2626.25791545614</v>
       </c>
       <c r="C31" t="n">
-        <v>473.4444960005474</v>
+        <v>2457.321732528233</v>
       </c>
       <c r="D31" t="n">
-        <v>473.4444960005474</v>
+        <v>2307.205093115898</v>
       </c>
       <c r="E31" t="n">
-        <v>473.4444960005474</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="F31" t="n">
-        <v>473.4444960005474</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="G31" t="n">
-        <v>393.6767897220517</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H31" t="n">
-        <v>235.9284171545819</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I31" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>2626.25791545614</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>2626.25791545614</v>
       </c>
       <c r="W31" t="n">
-        <v>473.4444960005474</v>
+        <v>2626.25791545614</v>
       </c>
       <c r="X31" t="n">
-        <v>473.4444960005474</v>
+        <v>2626.25791545614</v>
       </c>
       <c r="Y31" t="n">
-        <v>473.4444960005474</v>
+        <v>2626.25791545614</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>976.6605612216329</v>
+        <v>1369.416431066817</v>
       </c>
       <c r="C32" t="n">
-        <v>976.6605612216329</v>
+        <v>1000.453914126406</v>
       </c>
       <c r="D32" t="n">
-        <v>618.3948626148824</v>
+        <v>642.1882155196552</v>
       </c>
       <c r="E32" t="n">
-        <v>618.3948626148824</v>
+        <v>256.3999629214109</v>
       </c>
       <c r="F32" t="n">
         <v>207.4089578252748</v>
@@ -6695,16 +6697,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2543.724991191941</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2325.090324164004</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2071.328538802095</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V32" t="n">
-        <v>1740.265651458524</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W32" t="n">
-        <v>1740.265651458524</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X32" t="n">
-        <v>1366.799893197445</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y32" t="n">
-        <v>976.6605612216329</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6807,19 +6809,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>578.0123447940985</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>527.5811021474123</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>380.6911546495019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247702</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.95295430729</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D35" t="n">
-        <v>764.6872557005397</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E35" t="n">
-        <v>378.8990031022955</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036444</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548715</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548715</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548715</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287635</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961344</v>
@@ -7011,7 +7013,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7041,16 +7043,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>224.4233909876363</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C37" t="n">
-        <v>224.4233909876363</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D37" t="n">
-        <v>74.30675157530058</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="E37" t="n">
-        <v>74.30675157530058</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F37" t="n">
-        <v>74.30675157530058</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7132,13 +7134,13 @@
         <v>513.8405610245969</v>
       </c>
       <c r="W37" t="n">
-        <v>224.4233909876363</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X37" t="n">
-        <v>224.4233909876363</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.4233909876363</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>534.603677789272</v>
+        <v>1606.02060534945</v>
       </c>
       <c r="C38" t="n">
-        <v>534.603677789272</v>
+        <v>1237.058088409038</v>
       </c>
       <c r="D38" t="n">
-        <v>534.603677789272</v>
+        <v>1237.058088409038</v>
       </c>
       <c r="E38" t="n">
-        <v>534.603677789272</v>
+        <v>851.2698358107937</v>
       </c>
       <c r="F38" t="n">
-        <v>534.603677789272</v>
+        <v>440.2839310211861</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>440.2839310211861</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>113.0892110571889</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036444</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.483574129469</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859355</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="X38" t="n">
-        <v>936.2491605982752</v>
+        <v>1992.620445413571</v>
       </c>
       <c r="Y38" t="n">
-        <v>921.2035178533938</v>
+        <v>1992.620445413571</v>
       </c>
     </row>
     <row r="39">
@@ -7251,10 +7253,10 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L39" t="n">
         <v>670.8219208598704</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632152</v>
+        <v>2180.711461199622</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632152</v>
+        <v>2180.711461199622</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632152</v>
+        <v>2180.711461199622</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632152</v>
+        <v>2180.711461199622</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632152</v>
+        <v>2180.711461199622</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632152</v>
+        <v>2180.711461199622</v>
       </c>
       <c r="H40" t="n">
         <v>2022.963088632152</v>
@@ -7360,22 +7362,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>2566.821187183471</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>2277.647576838039</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>2022.963088632152</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W40" t="n">
-        <v>2022.963088632152</v>
+        <v>2408.701012097639</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632152</v>
+        <v>2180.711461199622</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632152</v>
+        <v>2180.711461199622</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>370.869459481829</v>
+        <v>1743.557834386494</v>
       </c>
       <c r="C41" t="n">
-        <v>370.869459481829</v>
+        <v>1374.595317446083</v>
       </c>
       <c r="D41" t="n">
-        <v>370.869459481829</v>
+        <v>1016.329618839332</v>
       </c>
       <c r="E41" t="n">
-        <v>370.869459481829</v>
+        <v>630.5413662410879</v>
       </c>
       <c r="F41" t="n">
-        <v>169.4207164528088</v>
+        <v>219.5554614514803</v>
       </c>
       <c r="G41" t="n">
-        <v>169.4207164528088</v>
+        <v>219.5554614514803</v>
       </c>
       <c r="H41" t="n">
-        <v>169.4207164528088</v>
+        <v>192.961256235747</v>
       </c>
       <c r="I41" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="J41" t="n">
-        <v>131.7225966808481</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="K41" t="n">
-        <v>131.7225966808481</v>
+        <v>333.7460912508351</v>
       </c>
       <c r="L41" t="n">
-        <v>173.3284995534661</v>
+        <v>751.06686929993</v>
       </c>
       <c r="M41" t="n">
-        <v>209.2664215535974</v>
+        <v>787.0047913000612</v>
       </c>
       <c r="N41" t="n">
-        <v>250.3996650824645</v>
+        <v>1261.111489996793</v>
       </c>
       <c r="O41" t="n">
-        <v>447.8395781252072</v>
+        <v>1663.609363662307</v>
       </c>
       <c r="P41" t="n">
-        <v>645.2794911679499</v>
+        <v>1969.45760381087</v>
       </c>
       <c r="Q41" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R41" t="n">
-        <v>748.4956901966791</v>
+        <v>1919.735322072324</v>
       </c>
       <c r="S41" t="n">
-        <v>572.3182025108492</v>
+        <v>1743.557834386494</v>
       </c>
       <c r="T41" t="n">
-        <v>572.3182025108492</v>
+        <v>1743.557834386494</v>
       </c>
       <c r="U41" t="n">
-        <v>572.3182025108492</v>
+        <v>1743.557834386494</v>
       </c>
       <c r="V41" t="n">
-        <v>370.869459481829</v>
+        <v>1743.557834386494</v>
       </c>
       <c r="W41" t="n">
-        <v>370.869459481829</v>
+        <v>1743.557834386494</v>
       </c>
       <c r="X41" t="n">
-        <v>370.869459481829</v>
+        <v>1743.557834386494</v>
       </c>
       <c r="Y41" t="n">
-        <v>370.869459481829</v>
+        <v>1743.557834386494</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.3907933078593</v>
+        <v>974.0502736275554</v>
       </c>
       <c r="C42" t="n">
-        <v>193.3907933078593</v>
+        <v>799.5972443464284</v>
       </c>
       <c r="D42" t="n">
-        <v>193.3907933078593</v>
+        <v>650.6628346851771</v>
       </c>
       <c r="E42" t="n">
-        <v>193.3907933078593</v>
+        <v>491.4253796797217</v>
       </c>
       <c r="F42" t="n">
-        <v>193.3907933078593</v>
+        <v>344.8908217066066</v>
       </c>
       <c r="G42" t="n">
-        <v>183.4401688699345</v>
+        <v>206.9807086528727</v>
       </c>
       <c r="H42" t="n">
-        <v>77.99738689487639</v>
+        <v>101.5379266778146</v>
       </c>
       <c r="I42" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="J42" t="n">
-        <v>15.9547404478984</v>
+        <v>114.7524426309664</v>
       </c>
       <c r="K42" t="n">
-        <v>213.3946534906411</v>
+        <v>369.999763072065</v>
       </c>
       <c r="L42" t="n">
-        <v>264.9809668803252</v>
+        <v>536.1532301469897</v>
       </c>
       <c r="M42" t="n">
-        <v>328.0798673258562</v>
+        <v>1024.907323003593</v>
       </c>
       <c r="N42" t="n">
-        <v>407.2574528252895</v>
+        <v>1513.661415860196</v>
       </c>
       <c r="O42" t="n">
-        <v>604.6973658680322</v>
+        <v>1953.79733888054</v>
       </c>
       <c r="P42" t="n">
-        <v>625.6640385293234</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="Q42" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R42" t="n">
-        <v>797.7370223949201</v>
+        <v>1924.550640953656</v>
       </c>
       <c r="S42" t="n">
-        <v>797.7370223949201</v>
+        <v>1823.551139282206</v>
       </c>
       <c r="T42" t="n">
-        <v>797.7370223949201</v>
+        <v>1624.672591404985</v>
       </c>
       <c r="U42" t="n">
-        <v>596.2882793658998</v>
+        <v>1396.502967375825</v>
       </c>
       <c r="V42" t="n">
-        <v>394.8395363368796</v>
+        <v>1396.502967375825</v>
       </c>
       <c r="W42" t="n">
-        <v>394.8395363368796</v>
+        <v>1142.265610647623</v>
       </c>
       <c r="X42" t="n">
-        <v>193.3907933078593</v>
+        <v>1142.265610647623</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.3907933078593</v>
+        <v>1142.265610647623</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>629.8106038684446</v>
+        <v>1619.630831496004</v>
       </c>
       <c r="C43" t="n">
-        <v>460.8744209405377</v>
+        <v>1450.694648568097</v>
       </c>
       <c r="D43" t="n">
-        <v>310.7577815282019</v>
+        <v>1300.578009155761</v>
       </c>
       <c r="E43" t="n">
-        <v>162.8446879458088</v>
+        <v>1300.578009155761</v>
       </c>
       <c r="F43" t="n">
-        <v>15.9547404478984</v>
+        <v>1300.578009155761</v>
       </c>
       <c r="G43" t="n">
-        <v>15.9547404478984</v>
+        <v>1300.578009155761</v>
       </c>
       <c r="H43" t="n">
-        <v>15.9547404478984</v>
+        <v>1300.578009155761</v>
       </c>
       <c r="I43" t="n">
-        <v>15.9547404478984</v>
+        <v>1300.578009155761</v>
       </c>
       <c r="J43" t="n">
-        <v>15.9547404478984</v>
+        <v>1300.578009155761</v>
       </c>
       <c r="K43" t="n">
-        <v>72.25693351416653</v>
+        <v>1356.88020222203</v>
       </c>
       <c r="L43" t="n">
-        <v>199.830791075325</v>
+        <v>1484.454059783188</v>
       </c>
       <c r="M43" t="n">
-        <v>344.7286597933548</v>
+        <v>1629.351928501218</v>
       </c>
       <c r="N43" t="n">
-        <v>491.6157974777839</v>
+        <v>1776.239066185647</v>
       </c>
       <c r="O43" t="n">
-        <v>611.273547987024</v>
+        <v>1895.896816694887</v>
       </c>
       <c r="P43" t="n">
-        <v>690.1407428339681</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="Q43" t="n">
-        <v>690.1407428339681</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R43" t="n">
-        <v>690.1407428339681</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="S43" t="n">
-        <v>690.1407428339681</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="T43" t="n">
-        <v>690.1407428339681</v>
+        <v>1747.455824210433</v>
       </c>
       <c r="U43" t="n">
-        <v>690.1407428339681</v>
+        <v>1619.630831496004</v>
       </c>
       <c r="V43" t="n">
-        <v>690.1407428339681</v>
+        <v>1619.630831496004</v>
       </c>
       <c r="W43" t="n">
-        <v>690.1407428339681</v>
+        <v>1619.630831496004</v>
       </c>
       <c r="X43" t="n">
-        <v>690.1407428339681</v>
+        <v>1619.630831496004</v>
       </c>
       <c r="Y43" t="n">
-        <v>690.1407428339681</v>
+        <v>1619.630831496004</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15.9547404478984</v>
+        <v>868.4449931222573</v>
       </c>
       <c r="C44" t="n">
-        <v>15.9547404478984</v>
+        <v>868.4449931222573</v>
       </c>
       <c r="D44" t="n">
-        <v>15.9547404478984</v>
+        <v>868.4449931222573</v>
       </c>
       <c r="E44" t="n">
-        <v>15.9547404478984</v>
+        <v>868.4449931222573</v>
       </c>
       <c r="F44" t="n">
-        <v>15.9547404478984</v>
+        <v>457.4590883326497</v>
       </c>
       <c r="G44" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="H44" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="I44" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="J44" t="n">
-        <v>131.7225966808481</v>
+        <v>155.2631364637863</v>
       </c>
       <c r="K44" t="n">
-        <v>329.1625097235909</v>
+        <v>449.5139474837848</v>
       </c>
       <c r="L44" t="n">
-        <v>526.6024227663336</v>
+        <v>453.3501231279337</v>
       </c>
       <c r="M44" t="n">
-        <v>724.0423358090763</v>
+        <v>934.3064432859692</v>
       </c>
       <c r="N44" t="n">
-        <v>772.2313281795233</v>
+        <v>1408.413141982701</v>
       </c>
       <c r="O44" t="n">
-        <v>797.7370223949201</v>
+        <v>1516.458240166298</v>
       </c>
       <c r="P44" t="n">
-        <v>797.7370223949201</v>
+        <v>1822.306480314861</v>
       </c>
       <c r="Q44" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R44" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="S44" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="T44" t="n">
-        <v>620.3009695349592</v>
+        <v>1756.129344513894</v>
       </c>
       <c r="U44" t="n">
-        <v>620.3009695349592</v>
+        <v>1756.129344513894</v>
       </c>
       <c r="V44" t="n">
-        <v>418.8522265059389</v>
+        <v>1756.129344513894</v>
       </c>
       <c r="W44" t="n">
-        <v>217.4034834769187</v>
+        <v>1756.129344513894</v>
       </c>
       <c r="X44" t="n">
-        <v>15.9547404478984</v>
+        <v>1382.663586252814</v>
       </c>
       <c r="Y44" t="n">
-        <v>15.9547404478984</v>
+        <v>1255.044833186379</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>344.6261657487046</v>
+        <v>700.1435518496553</v>
       </c>
       <c r="C45" t="n">
-        <v>170.1731364675776</v>
+        <v>525.6905225685283</v>
       </c>
       <c r="D45" t="n">
-        <v>170.1731364675776</v>
+        <v>376.756112907277</v>
       </c>
       <c r="E45" t="n">
-        <v>170.1731364675776</v>
+        <v>217.5186579018215</v>
       </c>
       <c r="F45" t="n">
-        <v>170.1731364675776</v>
+        <v>144.9380622058948</v>
       </c>
       <c r="G45" t="n">
-        <v>170.1731364675776</v>
+        <v>144.9380622058948</v>
       </c>
       <c r="H45" t="n">
-        <v>77.99738689487639</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="I45" t="n">
-        <v>15.9547404478984</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="J45" t="n">
-        <v>15.9547404478984</v>
+        <v>114.7524426309664</v>
       </c>
       <c r="K45" t="n">
-        <v>15.9547404478984</v>
+        <v>114.7524426309664</v>
       </c>
       <c r="L45" t="n">
-        <v>213.3946534906411</v>
+        <v>519.3683607266383</v>
       </c>
       <c r="M45" t="n">
-        <v>410.8345665333838</v>
+        <v>582.4672611721693</v>
       </c>
       <c r="N45" t="n">
-        <v>554.4851389316506</v>
+        <v>1071.221354028773</v>
       </c>
       <c r="O45" t="n">
-        <v>604.6973658680322</v>
+        <v>1511.357277049116</v>
       </c>
       <c r="P45" t="n">
-        <v>625.6640385293234</v>
+        <v>1847.602090663945</v>
       </c>
       <c r="Q45" t="n">
-        <v>797.7370223949201</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R45" t="n">
-        <v>747.5236518067451</v>
+        <v>1924.550640953656</v>
       </c>
       <c r="S45" t="n">
-        <v>747.5236518067451</v>
+        <v>1766.377668597572</v>
       </c>
       <c r="T45" t="n">
-        <v>747.5236518067451</v>
+        <v>1766.377668597572</v>
       </c>
       <c r="U45" t="n">
-        <v>747.5236518067451</v>
+        <v>1538.208044568412</v>
       </c>
       <c r="V45" t="n">
-        <v>747.5236518067451</v>
+        <v>1538.208044568412</v>
       </c>
       <c r="W45" t="n">
-        <v>747.5236518067451</v>
+        <v>1283.97068784021</v>
       </c>
       <c r="X45" t="n">
-        <v>546.0749087777249</v>
+        <v>1076.119187634677</v>
       </c>
       <c r="Y45" t="n">
-        <v>344.6261657487046</v>
+        <v>868.3588888697234</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>690.1407428339681</v>
+        <v>1533.167401028595</v>
       </c>
       <c r="C46" t="n">
-        <v>521.2045599060613</v>
+        <v>1533.167401028595</v>
       </c>
       <c r="D46" t="n">
-        <v>371.0879204937255</v>
+        <v>1533.167401028595</v>
       </c>
       <c r="E46" t="n">
-        <v>223.1748269113324</v>
+        <v>1533.167401028595</v>
       </c>
       <c r="F46" t="n">
-        <v>184.954540709566</v>
+        <v>1533.167401028595</v>
       </c>
       <c r="G46" t="n">
-        <v>15.9547404478984</v>
+        <v>1364.167600766928</v>
       </c>
       <c r="H46" t="n">
-        <v>15.9547404478984</v>
+        <v>1300.578009155761</v>
       </c>
       <c r="I46" t="n">
-        <v>15.9547404478984</v>
+        <v>1300.578009155761</v>
       </c>
       <c r="J46" t="n">
-        <v>15.9547404478984</v>
+        <v>1300.578009155761</v>
       </c>
       <c r="K46" t="n">
-        <v>72.25693351416653</v>
+        <v>1356.88020222203</v>
       </c>
       <c r="L46" t="n">
-        <v>199.830791075325</v>
+        <v>1484.454059783188</v>
       </c>
       <c r="M46" t="n">
-        <v>344.7286597933548</v>
+        <v>1629.351928501218</v>
       </c>
       <c r="N46" t="n">
-        <v>491.6157974777839</v>
+        <v>1776.239066185647</v>
       </c>
       <c r="O46" t="n">
-        <v>611.273547987024</v>
+        <v>1895.896816694887</v>
       </c>
       <c r="P46" t="n">
-        <v>690.1407428339681</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="Q46" t="n">
-        <v>690.1407428339681</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R46" t="n">
-        <v>690.1407428339681</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="S46" t="n">
-        <v>690.1407428339681</v>
+        <v>1760.475588359994</v>
       </c>
       <c r="T46" t="n">
-        <v>690.1407428339681</v>
+        <v>1533.167401028595</v>
       </c>
       <c r="U46" t="n">
-        <v>690.1407428339681</v>
+        <v>1533.167401028595</v>
       </c>
       <c r="V46" t="n">
-        <v>690.1407428339681</v>
+        <v>1533.167401028595</v>
       </c>
       <c r="W46" t="n">
-        <v>690.1407428339681</v>
+        <v>1533.167401028595</v>
       </c>
       <c r="X46" t="n">
-        <v>690.1407428339681</v>
+        <v>1533.167401028595</v>
       </c>
       <c r="Y46" t="n">
-        <v>690.1407428339681</v>
+        <v>1533.167401028595</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7984,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>397.4285684645674</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N2" t="n">
-        <v>428.8473191953211</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L3" t="n">
-        <v>337.9886353786044</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>341.5682895207485</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>325.4329618715857</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>429.7804888260027</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>383.0055497239142</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>151.7369224846634</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>330.7759676820633</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O6" t="n">
-        <v>342.0305000431745</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>429.7804888260027</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
-        <v>383.0055497239142</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>218.252781992347</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>341.5682895207484</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>330.7759676820633</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>226.3566267355529</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>129.3251406525474</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>212.2953474585329</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>6.639660809448799</v>
+        <v>60.63646678240544</v>
       </c>
       <c r="L12" t="n">
-        <v>161.5716533308035</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>135.6979925224362</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>90.22048955360512</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>148.7148344508698</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.266192922115</v>
+        <v>95.37215240944957</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>26.92237113682282</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>195.5593307056503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>133.2000655456271</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>212.2953474585329</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>6.639660809448799</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>56.31791061830839</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>135.6979925224362</v>
+        <v>278.2975410252801</v>
       </c>
       <c r="N15" t="n">
-        <v>119.4568965083933</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>148.7148344508698</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.266192922115</v>
+        <v>78.95090490399645</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9179,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L18" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9480,7 +9482,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747075</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747075</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142006</v>
       </c>
       <c r="L39" t="n">
-        <v>327.4218609627881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>52.15938665394273</v>
       </c>
       <c r="K41" t="n">
-        <v>26.92237113682285</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>38.15123962471625</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>173.6709281084303</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>212.2953474585329</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>63.67749217908701</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>206.0739164081789</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>14.24478499438066</v>
+        <v>129.9691826562399</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>429.9547398091639</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>413.7136437951211</v>
       </c>
       <c r="O42" t="n">
-        <v>148.7148344508698</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>36.26619292211501</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,25 +11299,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>226.3566267355529</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>195.5593307056504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>163.1333242854661</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>7.127019031898861</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>83.37313532141461</v>
       </c>
       <c r="P44" t="n">
-        <v>12.86109185980291</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.3174843700358</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>6.639660809448827</v>
       </c>
       <c r="L45" t="n">
-        <v>161.5716533308035</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>135.6979925224362</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>65.12422919074081</v>
+        <v>413.7136437951211</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>164.7125776472521</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>337.5787450449911</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>358.1999939857617</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4417901429814</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>214.349914422065</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>124.4885171656271</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>176.0256540720176</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>93.73697072305393</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>188.657324202171</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>219.1841471870042</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>251.2741654857531</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>41.86405175369006</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>70.47280858431071</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>177.8193126996107</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>26.4536721901386</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>33.36633155069524</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>52.26072756218957</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23422,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>167.590144402156</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>84.64127172249903</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>143.3962746049891</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>65.02014870606585</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>52.59758159255843</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>159.270394160137</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>226.2329309786241</v>
       </c>
       <c r="U13" t="n">
-        <v>86.8476186432477</v>
+        <v>286.2971656316017</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>87.08874273786097</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>26.27539979030712</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.4432777860758</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>207.0721493321193</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>207.4417901429814</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>148.331507346001</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>93.7369707230539</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>188.657324202171</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>219.1841471870042</v>
       </c>
       <c r="U14" t="n">
-        <v>51.78991190955927</v>
+        <v>251.2741654857531</v>
       </c>
       <c r="V14" t="n">
-        <v>128.3180028714049</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>72.93524187151895</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>70.4728085843107</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>162.80240794462</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.2375926043089</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9099271937521</v>
       </c>
       <c r="V15" t="n">
-        <v>33.36633155069524</v>
+        <v>13.9195180144734</v>
       </c>
       <c r="W15" t="n">
-        <v>241.54349029454</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>167.590144402156</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>158.663385350493</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>143.3962746049891</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>65.02014870606584</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>155.8937298920653</v>
+        <v>217.6448304567562</v>
       </c>
       <c r="U16" t="n">
-        <v>86.8476186432477</v>
+        <v>286.2971656316017</v>
       </c>
       <c r="V16" t="n">
-        <v>52.70338772509797</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>87.08874273786097</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218.838804368091</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.339074370310243</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23893,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>98.32758997849524</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>109.3068051348775</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23944,10 +23946,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.4114360937597</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24029,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>224.0500374058104</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>104.9141836097609</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>45.199959188537</v>
@@ -24169,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>80.49006577330425</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>176.3200790022052</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -24266,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>14.9595500168781</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24418,16 +24420,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="V25" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>29.95902968179034</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>59.08828236816348</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24601,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1383805067655</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551443</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24740,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>227.977367886964</v>
       </c>
       <c r="X29" t="n">
-        <v>201.9504862012864</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24838,28 +24840,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>88.3397730433402</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>216.0996104355165</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>358.3749506965367</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -24962,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>77.0042565557649</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24977,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>96.50703242634984</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25129,13 +25131,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>70.43694860033617</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>85.16958467259974</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25315,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>14.61605033522508</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>147.1496702016641</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>93.37654930040499</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>371.342752338621</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923383</v>
@@ -25600,19 +25602,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0.9594002052141377</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,22 +25630,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>207.4417901429814</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>297.5945096007812</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.729483698553111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25685,7 +25687,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>128.3180028714049</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>126.679893729651</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25752,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>56.60173597778811</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>26.4536721901386</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>33.36633155069524</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>6.338729604747442</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120.105142606069</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25837,10 +25839,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>159.7351314546934</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25916,22 +25918,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>40.78662802629651</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>128.3180028714049</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>149.806713118683</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>170.296845079739</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>259.895373120283</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>73.21442265441638</v>
       </c>
       <c r="G45" t="n">
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>13.13436207833334</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>6.338729604747442</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>6.248440178574327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>107.5829646831825</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>93.21719314674054</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923383</v>
@@ -26071,10 +26073,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>994460.8266249481</v>
+        <v>977061.9828571246</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>994460.8266249481</v>
+        <v>977580.9020161084</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>994460.8266249481</v>
+        <v>977580.9020161084</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>425776.7361466674</v>
+        <v>614138.7961889701</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>425776.7361466674</v>
+        <v>614138.7961889701</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730314.5583531708</v>
+        <v>730314.558353171</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>730314.5583531708</v>
+        <v>730314.558353171</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>425776.7361466674</v>
+        <v>614492.6245388492</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>425776.7361466675</v>
+        <v>614492.6245388492</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651772</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651771</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>220926.5313600995</v>
+        <v>297953.8922814025</v>
       </c>
       <c r="F2" t="n">
-        <v>220926.5313600995</v>
+        <v>297953.8922814027</v>
       </c>
       <c r="G2" t="n">
         <v>361440.762519697</v>
       </c>
       <c r="H2" t="n">
+        <v>361440.7625196971</v>
+      </c>
+      <c r="I2" t="n">
+        <v>361440.7625196971</v>
+      </c>
+      <c r="J2" t="n">
         <v>361440.762519697</v>
-      </c>
-      <c r="I2" t="n">
-        <v>361440.762519697</v>
-      </c>
-      <c r="J2" t="n">
-        <v>361440.7625196971</v>
       </c>
       <c r="K2" t="n">
         <v>361440.7625196971</v>
       </c>
       <c r="L2" t="n">
-        <v>361440.7625196971</v>
+        <v>361440.762519697</v>
       </c>
       <c r="M2" t="n">
+        <v>361440.762519697</v>
+      </c>
+      <c r="N2" t="n">
         <v>361440.7625196969</v>
       </c>
-      <c r="N2" t="n">
-        <v>361440.762519697</v>
-      </c>
       <c r="O2" t="n">
-        <v>220926.5313600994</v>
+        <v>308000.3397064625</v>
       </c>
       <c r="P2" t="n">
-        <v>220926.5313600994</v>
+        <v>308000.3397064624</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66835.00603901327</v>
+        <v>13265.4675990829</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1469.420920626199</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>303480.3930630001</v>
+        <v>312809.7618613446</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.261091817170383e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>130150.0892071544</v>
+        <v>170368.7711797671</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>52180.77637187413</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1170.585694982309</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>112031.8587974743</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361120.1056344946</v>
+        <v>386863.3429119225</v>
       </c>
       <c r="C4" t="n">
-        <v>361120.1056344947</v>
+        <v>386095.5528670329</v>
       </c>
       <c r="D4" t="n">
-        <v>361120.1056344947</v>
+        <v>386095.5528670329</v>
       </c>
       <c r="E4" t="n">
-        <v>28278.0068234198</v>
+        <v>78195.59089436519</v>
       </c>
       <c r="F4" t="n">
-        <v>28278.0068234198</v>
+        <v>78195.5908943652</v>
       </c>
       <c r="G4" t="n">
+        <v>80234.29431677572</v>
+      </c>
+      <c r="H4" t="n">
+        <v>80234.29431677572</v>
+      </c>
+      <c r="I4" t="n">
         <v>80234.2943167757</v>
-      </c>
-      <c r="H4" t="n">
-        <v>80234.2943167757</v>
-      </c>
-      <c r="I4" t="n">
-        <v>80234.29431677572</v>
       </c>
       <c r="J4" t="n">
         <v>80234.29431677572</v>
       </c>
       <c r="K4" t="n">
-        <v>80234.2943167757</v>
+        <v>80234.29431677572</v>
       </c>
       <c r="L4" t="n">
-        <v>80234.2943167757</v>
+        <v>80234.29431677572</v>
       </c>
       <c r="M4" t="n">
-        <v>80234.2943167757</v>
+        <v>80234.29431677572</v>
       </c>
       <c r="N4" t="n">
         <v>80234.29431677572</v>
       </c>
       <c r="O4" t="n">
-        <v>28278.0068234198</v>
+        <v>60474.26041460632</v>
       </c>
       <c r="P4" t="n">
-        <v>28278.00682341981</v>
+        <v>60474.26041460632</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45753.20274040279</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="C5" t="n">
-        <v>45753.20274040278</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>45753.20274040278</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>20360.41462033527</v>
+        <v>34862.14320172168</v>
       </c>
       <c r="F5" t="n">
-        <v>20360.41462033527</v>
+        <v>34862.14320172169</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26506,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>20360.41462033527</v>
+        <v>38251.22485536832</v>
       </c>
       <c r="P5" t="n">
-        <v>20360.41462033527</v>
+        <v>38251.22485536832</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39442.79175126652</v>
+        <v>76987.99593489182</v>
       </c>
       <c r="C6" t="n">
-        <v>106277.7977902797</v>
+        <v>89275.29629686095</v>
       </c>
       <c r="D6" t="n">
-        <v>106277.7977902795</v>
+        <v>90744.71721748721</v>
       </c>
       <c r="E6" t="n">
-        <v>-131192.2831466556</v>
+        <v>-127913.6036760289</v>
       </c>
       <c r="F6" t="n">
-        <v>172288.1099163445</v>
+        <v>184896.1581853157</v>
       </c>
       <c r="G6" t="n">
-        <v>101824.9009323574</v>
+        <v>61606.21895974475</v>
       </c>
       <c r="H6" t="n">
-        <v>231974.9901395118</v>
+        <v>231974.990139512</v>
       </c>
       <c r="I6" t="n">
-        <v>231974.9901395119</v>
+        <v>231974.990139512</v>
       </c>
       <c r="J6" t="n">
-        <v>179794.2137676378</v>
+        <v>221618.106235708</v>
       </c>
       <c r="K6" t="n">
-        <v>231974.9901395119</v>
+        <v>230804.4044445297</v>
       </c>
       <c r="L6" t="n">
         <v>231974.9901395119</v>
       </c>
       <c r="M6" t="n">
-        <v>231974.9901395118</v>
+        <v>119943.1313420375</v>
       </c>
       <c r="N6" t="n">
         <v>231974.9901395118</v>
       </c>
       <c r="O6" t="n">
-        <v>172288.1099163443</v>
+        <v>209274.8544364879</v>
       </c>
       <c r="P6" t="n">
-        <v>172288.1099163443</v>
+        <v>209274.8544364878</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>222.2812030406355</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>222.2812030406356</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.4342555987302</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
-        <v>199.43425559873</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>199.43425559873</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>199.43425559873</v>
+        <v>493.6910028854577</v>
       </c>
       <c r="F4" t="n">
-        <v>199.43425559873</v>
+        <v>493.6910028854577</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26817,19 +26819,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>199.43425559873</v>
+        <v>493.6910028854577</v>
       </c>
       <c r="P4" t="n">
-        <v>199.43425559873</v>
+        <v>493.6910028854577</v>
       </c>
     </row>
   </sheetData>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>222.2812030406355</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.39075054832453e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>155.4624611764511</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.4342555987302</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>449.5588305062291</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>474.8530171558255</v>
+        <v>180.5962698690977</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>199.4342555987301</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.548295417387976</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>449.5588305062291</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>199.4342555987302</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>449.5588305062291</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>474.8530171558255</v>
+        <v>180.5962698690977</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>183.2995860647504</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4417901429813</v>
+        <v>399.2625937834698</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,10 +27426,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>188.2631355368592</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27463,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>111.3247118856693</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -27509,13 +27511,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7304730960914299</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V3" t="n">
-        <v>33.36633155069509</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>170.8172169493152</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>127.6629441367872</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27579,13 +27581,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>76.18449089043011</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,25 +27621,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>161.6256941031325</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>312.5524740387551</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,16 +27660,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>9.585813987515309</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>23.66159396540132</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27713,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
-        <v>0.730473096091572</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>26.50712648224479</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>52.26072756218957</v>
+        <v>213.5699570555529</v>
       </c>
       <c r="X6" t="n">
-        <v>202.5410553022118</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27813,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>183.5084732972328</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27855,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>221.5714152560356</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F8" t="n">
-        <v>207.4417901429814</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27874,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>204.2765247660798</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>51.91139730910646</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>170.296845079739</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,13 +27934,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,10 +27949,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27983,7 +27985,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0.730473096091572</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,7 +27994,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>86.71497703646776</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>56.32934533914266</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,25 +28055,25 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>285.7325478889088</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>0.8935927760427551</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>9.151507017647868</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>34.45023549838834</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>75.84256987565885</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>113.6683520855487</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>141.0156420053672</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>156.9070725363175</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>159.445993011249</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>150.5603298444739</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>128.4997581859183</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>96.49796689388714</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>56.13214721809576</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>20.3627453840743</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>3.911702377127162</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.07148742208342039</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.4781142857855178</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>4.617577444296976</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>16.46139097989612</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>45.17131504432387</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>77.20497219195356</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>103.8116127974213</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>121.1432556571463</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>124.3495571613834</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>113.7555511447675</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>91.29885866021877</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>61.03086918202506</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>29.68502556833243</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>8.880763159217837</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>1.927136090512679</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.03145488722273145</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.4008349563027853</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>3.563787156946584</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>12.05420032226922</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>28.33903141060692</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>46.56973401408722</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>59.59322613977956</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>62.83270137753568</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>61.33868017677081</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>56.65619909632461</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>48.47916598774776</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>33.56446165913596</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>18.0229972170325</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>6.985460102113082</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>1.712658449657355</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.02186372488924286</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>0.8935927760427554</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>9.151507017647871</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>34.45023549838836</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>75.84256987565888</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>113.6683520855487</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>141.0156420053673</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>156.9070725363176</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>159.4459930112491</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>150.5603298444739</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>128.4997581859184</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>96.49796689388717</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>56.13214721809578</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>20.36274538407431</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>3.911702377127164</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.07148742208342042</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.4781142857855181</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>4.617577444296978</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>16.46139097989613</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>45.17131504432388</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>77.20497219195359</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>103.8116127974214</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>121.1432556571464</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>124.3495571613835</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>113.7555511447675</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>91.2988586602188</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>61.03086918202508</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>29.68502556833244</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>8.880763159217841</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>1.92713609051268</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.03145488722273147</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.4008349563027854</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>3.563787156946586</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>12.05420032226922</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>28.33903141060693</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>46.56973401408724</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>59.59322613977958</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>62.83270137753571</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>61.33868017677084</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>56.65619909632463</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>48.47916598774778</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>33.56446165913597</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>18.02299721703251</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>6.985460102113085</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>1.712658449657355</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.02186372488924287</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34702,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>167.0823352372947</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N2" t="n">
-        <v>199.4342555987302</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L3" t="n">
-        <v>199.4342555987302</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>199.4342555987302</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>194.0912497882524</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>153.5924861273233</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>9.60288856264509</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>199.43425559873</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O6" t="n">
-        <v>199.43425559873</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>199.43425559873</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N8" t="n">
-        <v>153.5924861273233</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>79.69840221247283</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>63.89328052104634</v>
       </c>
       <c r="K11" t="n">
-        <v>199.43425559873</v>
+        <v>217.7239136117329</v>
       </c>
       <c r="L11" t="n">
-        <v>3.874924893079708</v>
+        <v>322.9104415858304</v>
       </c>
       <c r="M11" t="n">
-        <v>165.6260719658114</v>
+        <v>376.0743728018773</v>
       </c>
       <c r="N11" t="n">
-        <v>41.54873083723948</v>
+        <v>367.3798538266423</v>
       </c>
       <c r="O11" t="n">
-        <v>25.76332749029984</v>
+        <v>301.2622996855325</v>
       </c>
       <c r="P11" t="n">
-        <v>199.43425559873</v>
+        <v>219.0654706021314</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>86.50726767934233</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>44.42472371806601</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>199.43425559873</v>
+        <v>336.0975783210063</v>
       </c>
       <c r="M12" t="n">
-        <v>199.43425559873</v>
+        <v>444.7142854851279</v>
       </c>
       <c r="N12" t="n">
-        <v>170.1978486439418</v>
+        <v>472.3502194216037</v>
       </c>
       <c r="O12" t="n">
-        <v>199.43425559873</v>
+        <v>365.0216259770526</v>
       </c>
       <c r="P12" t="n">
-        <v>21.17845723362748</v>
+        <v>275.7872198858257</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>16.42124750545311</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>24.30024218820437</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>87.1832514000957</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>102.4165783393763</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>105.4708525559994</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>81.24132701036429</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>45.75772525264124</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>63.89328052104636</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>217.7239136117329</v>
       </c>
       <c r="L14" t="n">
-        <v>199.43425559873</v>
+        <v>322.9104415858304</v>
       </c>
       <c r="M14" t="n">
-        <v>169.5009968588911</v>
+        <v>376.0743728018774</v>
       </c>
       <c r="N14" t="n">
-        <v>41.54873083723948</v>
+        <v>367.3798538266423</v>
       </c>
       <c r="O14" t="n">
-        <v>25.76332749029984</v>
+        <v>301.2622996855325</v>
       </c>
       <c r="P14" t="n">
-        <v>199.43425559873</v>
+        <v>219.0654706021315</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>86.50726767934236</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>44.42472371806603</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>203.8287702301732</v>
       </c>
       <c r="L15" t="n">
-        <v>94.18051288623494</v>
+        <v>336.0975783210064</v>
       </c>
       <c r="M15" t="n">
-        <v>199.43425559873</v>
+        <v>257.3067627604082</v>
       </c>
       <c r="N15" t="n">
-        <v>199.43425559873</v>
+        <v>472.3502194216037</v>
       </c>
       <c r="O15" t="n">
-        <v>199.43425559873</v>
+        <v>365.0216259770526</v>
       </c>
       <c r="P15" t="n">
-        <v>21.17845723362748</v>
+        <v>275.7872198858257</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>24.30024218820439</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>87.18325140009571</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>102.4165783393763</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>105.4708525559994</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>81.2413270103643</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>45.75772525264127</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35899,7 +35901,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35963,10 +35965,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L18" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36209,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047518</v>
       </c>
       <c r="L39" t="n">
-        <v>365.2844632307146</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>42.02616451779593</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
         <v>36.30093131326393</v>
       </c>
       <c r="N41" t="n">
-        <v>41.54873083723948</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>199.43425559873</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>199.43425559873</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>5.360007809051212</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>199.43425559873</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>52.10738726230718</v>
+        <v>167.8317849241664</v>
       </c>
       <c r="M42" t="n">
-        <v>63.73626307629385</v>
+        <v>493.6910028854577</v>
       </c>
       <c r="N42" t="n">
-        <v>79.97735909033668</v>
+        <v>493.6910028854577</v>
       </c>
       <c r="O42" t="n">
-        <v>199.43425559873</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>21.17845723362746</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>199.43425559873</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>199.43425559873</v>
+        <v>3.87492489307968</v>
       </c>
       <c r="M44" t="n">
-        <v>199.43425559873</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>48.67574986913834</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>25.76332749029979</v>
+        <v>109.1364628117144</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>199.43425559873</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>199.43425559873</v>
+        <v>63.73626307629385</v>
       </c>
       <c r="N45" t="n">
-        <v>145.1015882810775</v>
+        <v>493.6910028854577</v>
       </c>
       <c r="O45" t="n">
-        <v>50.71942114786023</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>21.17845723362746</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>128.4463847251371</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
